--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02012026.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF1F46-07E8-44A6-8474-00EE202F9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -58,7 +62,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t xml:space="preserve">viernes, 2 de enero de 2026
+    <t>viernes, 2 de enero de 2026
 *Evangelio del Día*
 Lectura del santo evangelio según san Juan
 Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
@@ -68,45 +72,23 @@
 Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
 Amén.</t>
   </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -481,9 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -492,7 +479,7 @@
     <col min="9" max="9" width="100" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -547,127 +534,11 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02012026.xlsx
@@ -1,99 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF1F46-07E8-44A6-8474-00EE202F9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Evangelio y Oraciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>viernes, 2 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Juan
-Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
-*Oración de la mañana*
-Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
-Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
-Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
-Amén.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,28 +56,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,78 +461,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>viernes, 2 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Juan
+Juan 1, 19-28 Éste es el testimonio que dio Juan el Bautista, cuando los judíos enviaron desde Jerusalén a unos sacerdotes y levitas para preguntarle: "¿Quién eres tú?" Él reconoció y no negó quién era. Él afirmó: "Yo no soy el Mesías". De nuevo le preguntaron: "¿Quién eres, pues? ¿Eres Elías?" Él les respondió: "No lo soy". "¿Eres el profeta?" Respondió: "No". Le dijeron: "Entonces dinos quién eres, para poder llevar una respuesta a los que nos enviaron. ¿Qué dices de ti mismo?" Juan les contestó: "Yo soy la voz que grita en el desierto: 'Enderecen el camino del Señor', como anunció el profeta Isaías". Los enviados, que pertenecían a la secta de los fariseos, le preguntaron: "Entonces ¿por qué bautizas, si no eres el Mesías, ni Elías, ni el profeta?" Juan les respondió: "Yo bautizo con agua, pero en medio de ustedes hay uno, al que ustedes no conocen, alguien que viene detrás de mí, a quien yo no soy digno de desatarle las correas de sus sandalias". Esto sucedió en Betania, en la otra orilla del Jordán, donde Juan bautizaba.
+*Oración de la mañana*
+Querido Jesús, humildemente me presento ante ti en este nuevo día, reconociendo tu presencia en medio de nosotros. Como Juan el Bautista, anhelo ser una voz en el desierto que proclama tu amor y tu verdad. Ayúdame a ser auténtico en mi fe y a no negar tu luz en mi vida.
+Padre amado, gracias por este nuevo día. Eres el creador de todo lo que veo y experimento y en tu infinita bondad, me has ofrecido un nuevo comienzo. Te pido que, como con Juan, me des el coraje para enderezar los caminos torcidos de mi vida y preparar el camino para tu llegada en mi corazón.
+Espíritu Santo, te invoco para que me guíes en este día. Ilumina mi camino en la búsqueda de la verdad y en el cumplimiento de la misión que me has encomendado. Que mi vida pueda ser un testimonio de tu amor y tu gracia, y que pueda bautizar con mis palabras y acciones, llevando tu luz a todos los que me rodean.
+Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02012026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro Luces\Desktop\Repositorio_proyc_web\webSiteCatolico\WhatsAppExcelMonitorElevenLabsV2\scripts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A939277-5FA8-4F4E-9B48-3F74E795A762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF59829-0B5D-45D1-A2B6-7AF436321419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -78,49 +78,28 @@
     <t>Omar</t>
   </si>
   <si>
-    <t>56973223070</t>
-  </si>
-  <si>
     <t>Mama</t>
   </si>
   <si>
-    <t>56971748545</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
-    <t>56931123918</t>
-  </si>
-  <si>
     <t>Yume</t>
   </si>
   <si>
-    <t>584146711206</t>
-  </si>
-  <si>
     <t>Mariangely</t>
   </si>
   <si>
-    <t>56972028078</t>
-  </si>
-  <si>
     <t>mariangelygonzalez14@gmail.com</t>
   </si>
   <si>
     <t>ALEJANDRO MANUEL</t>
   </si>
   <si>
-    <t>34672527995</t>
-  </si>
-  <si>
     <t>alejandroluces5515@gmail.com</t>
   </si>
   <si>
     <t>Marianny</t>
-  </si>
-  <si>
-    <t>56967970252</t>
   </si>
   <si>
     <t>marikaro2508@gmail.com</t>
@@ -520,7 +499,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -609,10 +588,10 @@
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -632,10 +611,10 @@
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -655,10 +634,10 @@
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -678,13 +657,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -701,13 +680,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -724,13 +703,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
